--- a/programData/advancedSettings_spare.xlsx
+++ b/programData/advancedSettings_spare.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="336" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="45">
   <si>
     <t>Component</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>199</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8.6</t>
   </si>
 </sst>
 </file>
@@ -591,7 +600,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -640,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
@@ -674,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -683,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>38</v>
